--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="H2">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="I2">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="J2">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.882413502670955</v>
+        <v>2.114663666666666</v>
       </c>
       <c r="N2">
-        <v>0.882413502670955</v>
+        <v>6.343991</v>
       </c>
       <c r="O2">
-        <v>0.001726993385296864</v>
+        <v>0.003944594926988795</v>
       </c>
       <c r="P2">
-        <v>0.001726993385296864</v>
+        <v>0.003963625705316761</v>
       </c>
       <c r="Q2">
-        <v>36.07919773953702</v>
+        <v>93.79655543185778</v>
       </c>
       <c r="R2">
-        <v>36.07919773953702</v>
+        <v>844.16899888672</v>
       </c>
       <c r="S2">
-        <v>0.0002386767558021887</v>
+        <v>0.0005355558539763149</v>
       </c>
       <c r="T2">
-        <v>0.0002386767558021887</v>
+        <v>0.0005561113573448578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="H3">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="I3">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="J3">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.565245657866</v>
+        <v>24.954405</v>
       </c>
       <c r="N3">
-        <v>22.565245657866</v>
+        <v>74.863215</v>
       </c>
       <c r="O3">
-        <v>0.04416300279945396</v>
+        <v>0.04654878263652509</v>
       </c>
       <c r="P3">
-        <v>0.04416300279945396</v>
+        <v>0.046773358183619</v>
       </c>
       <c r="Q3">
-        <v>922.6240959222508</v>
+        <v>1106.8602864592</v>
       </c>
       <c r="R3">
-        <v>922.6240959222508</v>
+        <v>9961.7425781328</v>
       </c>
       <c r="S3">
-        <v>0.006103487323343016</v>
+        <v>0.006319906986112916</v>
       </c>
       <c r="T3">
-        <v>0.006103487323343016</v>
+        <v>0.006562475279181498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="H4">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="I4">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="J4">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>226.266022777234</v>
+        <v>245.6480053333333</v>
       </c>
       <c r="N4">
-        <v>226.266022777234</v>
+        <v>736.944016</v>
       </c>
       <c r="O4">
-        <v>0.4428308536428006</v>
+        <v>0.4582203264456632</v>
       </c>
       <c r="P4">
-        <v>0.4428308536428006</v>
+        <v>0.4604310197156595</v>
       </c>
       <c r="Q4">
-        <v>9251.327810384284</v>
+        <v>10895.79260861497</v>
       </c>
       <c r="R4">
-        <v>9251.327810384284</v>
+        <v>98062.13347753473</v>
       </c>
       <c r="S4">
-        <v>0.06120083169769013</v>
+        <v>0.06221236471199519</v>
       </c>
       <c r="T4">
-        <v>0.06120083169769013</v>
+        <v>0.06460017629673979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="H5">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="I5">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="J5">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>253.9271718785</v>
+        <v>255.6524913333334</v>
       </c>
       <c r="N5">
-        <v>253.9271718785</v>
+        <v>766.957474</v>
       </c>
       <c r="O5">
-        <v>0.4969671756539676</v>
+        <v>0.4768822277895005</v>
       </c>
       <c r="P5">
-        <v>0.4969671756539676</v>
+        <v>0.4791829557814964</v>
       </c>
       <c r="Q5">
-        <v>10382.30786124094</v>
+        <v>11339.54465318734</v>
       </c>
       <c r="R5">
-        <v>10382.30786124094</v>
+        <v>102055.9018786861</v>
       </c>
       <c r="S5">
-        <v>0.06868266794483179</v>
+        <v>0.06474608254513403</v>
       </c>
       <c r="T5">
-        <v>0.06868266794483179</v>
+        <v>0.06723114233483678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="H6">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="I6">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="J6">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.31275502993284</v>
+        <v>7.721897999999999</v>
       </c>
       <c r="N6">
-        <v>7.31275502993284</v>
+        <v>15.443796</v>
       </c>
       <c r="O6">
-        <v>0.01431197451848113</v>
+        <v>0.01440406820132228</v>
       </c>
       <c r="P6">
-        <v>0.01431197451848113</v>
+        <v>0.00964904061390821</v>
       </c>
       <c r="Q6">
-        <v>298.996257363623</v>
+        <v>342.50715383872</v>
       </c>
       <c r="R6">
-        <v>298.996257363623</v>
+        <v>2055.04292303232</v>
       </c>
       <c r="S6">
-        <v>0.001977966838945061</v>
+        <v>0.001955633769518903</v>
       </c>
       <c r="T6">
-        <v>0.001977966838945061</v>
+        <v>0.001353796112907014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="H7">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="I7">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="J7">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.882413502670955</v>
+        <v>2.114663666666666</v>
       </c>
       <c r="N7">
-        <v>0.882413502670955</v>
+        <v>6.343991</v>
       </c>
       <c r="O7">
-        <v>0.001726993385296864</v>
+        <v>0.003944594926988795</v>
       </c>
       <c r="P7">
-        <v>0.001726993385296864</v>
+        <v>0.003963625705316761</v>
       </c>
       <c r="Q7">
-        <v>69.2709116948773</v>
+        <v>177.659820160175</v>
       </c>
       <c r="R7">
-        <v>69.2709116948773</v>
+        <v>1598.938381441575</v>
       </c>
       <c r="S7">
-        <v>0.0004582517769422378</v>
+        <v>0.001014394998463288</v>
       </c>
       <c r="T7">
-        <v>0.0004582517769422378</v>
+        <v>0.001053329125787507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="H8">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="I8">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="J8">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.565245657866</v>
+        <v>24.954405</v>
       </c>
       <c r="N8">
-        <v>22.565245657866</v>
+        <v>74.863215</v>
       </c>
       <c r="O8">
-        <v>0.04416300279945396</v>
+        <v>0.04654878263652509</v>
       </c>
       <c r="P8">
-        <v>0.04416300279945396</v>
+        <v>0.046773358183619</v>
       </c>
       <c r="Q8">
-        <v>1771.408908190883</v>
+        <v>2096.501289726375</v>
       </c>
       <c r="R8">
-        <v>1771.408908190883</v>
+        <v>18868.51160753737</v>
       </c>
       <c r="S8">
-        <v>0.01171850146054613</v>
+        <v>0.01197051995579467</v>
       </c>
       <c r="T8">
-        <v>0.01171850146054613</v>
+        <v>0.01242996795070992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="H9">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="I9">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="J9">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>226.266022777234</v>
+        <v>245.6480053333333</v>
       </c>
       <c r="N9">
-        <v>226.266022777234</v>
+        <v>736.944016</v>
       </c>
       <c r="O9">
-        <v>0.4428308536428006</v>
+        <v>0.4582203264456632</v>
       </c>
       <c r="P9">
-        <v>0.4428308536428006</v>
+        <v>0.4604310197156595</v>
       </c>
       <c r="Q9">
-        <v>17762.25503792801</v>
+        <v>20637.6934252708</v>
       </c>
       <c r="R9">
-        <v>17762.25503792801</v>
+        <v>185739.2408274372</v>
       </c>
       <c r="S9">
-        <v>0.1175036495763872</v>
+        <v>0.1178362838121695</v>
       </c>
       <c r="T9">
-        <v>0.1175036495763872</v>
+        <v>0.1223590317400537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="H10">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="I10">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="J10">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>253.9271718785</v>
+        <v>255.6524913333334</v>
       </c>
       <c r="N10">
-        <v>253.9271718785</v>
+        <v>766.957474</v>
       </c>
       <c r="O10">
-        <v>0.4969671756539676</v>
+        <v>0.4768822277895005</v>
       </c>
       <c r="P10">
-        <v>0.4969671756539676</v>
+        <v>0.4791829557814964</v>
       </c>
       <c r="Q10">
-        <v>19933.7007501398</v>
+        <v>21478.20305882246</v>
       </c>
       <c r="R10">
-        <v>19933.7007501398</v>
+        <v>193303.8275294021</v>
       </c>
       <c r="S10">
-        <v>0.1318685371144308</v>
+        <v>0.1226353923988286</v>
       </c>
       <c r="T10">
-        <v>0.1318685371144308</v>
+        <v>0.127342337907575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="H11">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="I11">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="J11">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.31275502993284</v>
+        <v>7.721897999999999</v>
       </c>
       <c r="N11">
-        <v>7.31275502993284</v>
+        <v>15.443796</v>
       </c>
       <c r="O11">
-        <v>0.01431197451848113</v>
+        <v>0.01440406820132228</v>
       </c>
       <c r="P11">
-        <v>0.01431197451848113</v>
+        <v>0.00964904061390821</v>
       </c>
       <c r="Q11">
-        <v>574.0633006991058</v>
+        <v>648.7419401959501</v>
       </c>
       <c r="R11">
-        <v>574.0633006991058</v>
+        <v>3892.4516411757</v>
       </c>
       <c r="S11">
-        <v>0.00379763339598352</v>
+        <v>0.003704161013080092</v>
       </c>
       <c r="T11">
-        <v>0.00379763339598352</v>
+        <v>0.002564221818650216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="H12">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="I12">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="J12">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.882413502670955</v>
+        <v>2.114663666666666</v>
       </c>
       <c r="N12">
-        <v>0.882413502670955</v>
+        <v>6.343991</v>
       </c>
       <c r="O12">
-        <v>0.001726993385296864</v>
+        <v>0.003944594926988795</v>
       </c>
       <c r="P12">
-        <v>0.001726993385296864</v>
+        <v>0.003963625705316761</v>
       </c>
       <c r="Q12">
-        <v>66.18311104179246</v>
+        <v>201.5668429125554</v>
       </c>
       <c r="R12">
-        <v>66.18311104179246</v>
+        <v>1814.101586212999</v>
       </c>
       <c r="S12">
-        <v>0.0004378248747765461</v>
+        <v>0.001150898369266536</v>
       </c>
       <c r="T12">
-        <v>0.0004378248747765461</v>
+        <v>0.001195071717630971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="H13">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="I13">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="J13">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.565245657866</v>
+        <v>24.954405</v>
       </c>
       <c r="N13">
-        <v>22.565245657866</v>
+        <v>74.863215</v>
       </c>
       <c r="O13">
-        <v>0.04416300279945396</v>
+        <v>0.04654878263652509</v>
       </c>
       <c r="P13">
-        <v>0.04416300279945396</v>
+        <v>0.046773358183619</v>
       </c>
       <c r="Q13">
-        <v>1692.447083526511</v>
+        <v>2378.619688747015</v>
       </c>
       <c r="R13">
-        <v>1692.447083526511</v>
+        <v>21407.57719872313</v>
       </c>
       <c r="S13">
-        <v>0.01119614083936022</v>
+        <v>0.0135813484069492</v>
       </c>
       <c r="T13">
-        <v>0.01119614083936022</v>
+        <v>0.01410262261365546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="H14">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="I14">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="J14">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>226.266022777234</v>
+        <v>245.6480053333333</v>
       </c>
       <c r="N14">
-        <v>226.266022777234</v>
+        <v>736.944016</v>
       </c>
       <c r="O14">
-        <v>0.4428308536428006</v>
+        <v>0.4582203264456632</v>
       </c>
       <c r="P14">
-        <v>0.4428308536428006</v>
+        <v>0.4604310197156595</v>
       </c>
       <c r="Q14">
-        <v>16970.48975919227</v>
+        <v>23414.83124872336</v>
       </c>
       <c r="R14">
-        <v>16970.48975919227</v>
+        <v>210733.4812385102</v>
       </c>
       <c r="S14">
-        <v>0.1122658399817915</v>
+        <v>0.1336930752668362</v>
       </c>
       <c r="T14">
-        <v>0.1122658399817915</v>
+        <v>0.1388244326007061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="H15">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="I15">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="J15">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>253.9271718785</v>
+        <v>255.6524913333334</v>
       </c>
       <c r="N15">
-        <v>253.9271718785</v>
+        <v>766.957474</v>
       </c>
       <c r="O15">
-        <v>0.4969671756539676</v>
+        <v>0.4768822277895005</v>
       </c>
       <c r="P15">
-        <v>0.4969671756539676</v>
+        <v>0.4791829557814964</v>
       </c>
       <c r="Q15">
-        <v>19045.14171881365</v>
+        <v>24368.44514476271</v>
       </c>
       <c r="R15">
-        <v>19045.14171881365</v>
+        <v>219316.0063028644</v>
       </c>
       <c r="S15">
-        <v>0.1259904023380785</v>
+        <v>0.1391379820878342</v>
       </c>
       <c r="T15">
-        <v>0.1259904023380785</v>
+        <v>0.1444783237875166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="H16">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="I16">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="J16">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.31275502993284</v>
+        <v>7.721897999999999</v>
       </c>
       <c r="N16">
-        <v>7.31275502993284</v>
+        <v>15.443796</v>
       </c>
       <c r="O16">
-        <v>0.01431197451848113</v>
+        <v>0.01440406820132228</v>
       </c>
       <c r="P16">
-        <v>0.01431197451848113</v>
+        <v>0.00964904061390821</v>
       </c>
       <c r="Q16">
-        <v>548.474016662848</v>
+        <v>736.0407357857738</v>
       </c>
       <c r="R16">
-        <v>548.474016662848</v>
+        <v>4416.244414714643</v>
       </c>
       <c r="S16">
-        <v>0.003628351159134284</v>
+        <v>0.004202616215490779</v>
       </c>
       <c r="T16">
-        <v>0.003628351159134284</v>
+        <v>0.002909279633666303</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="H17">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="I17">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="J17">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.882413502670955</v>
+        <v>2.114663666666666</v>
       </c>
       <c r="N17">
-        <v>0.882413502670955</v>
+        <v>6.343991</v>
       </c>
       <c r="O17">
-        <v>0.001726993385296864</v>
+        <v>0.003944594926988795</v>
       </c>
       <c r="P17">
-        <v>0.001726993385296864</v>
+        <v>0.003963625705316761</v>
       </c>
       <c r="Q17">
-        <v>61.76044835861491</v>
+        <v>150.8498371732346</v>
       </c>
       <c r="R17">
-        <v>61.76044835861491</v>
+        <v>1357.648534559112</v>
       </c>
       <c r="S17">
-        <v>0.0004085673843841955</v>
+        <v>0.0008613164203902109</v>
       </c>
       <c r="T17">
-        <v>0.0004085673843841955</v>
+        <v>0.0008943751433026024</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="H18">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="I18">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="J18">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.565245657866</v>
+        <v>24.954405</v>
       </c>
       <c r="N18">
-        <v>22.565245657866</v>
+        <v>74.863215</v>
       </c>
       <c r="O18">
-        <v>0.04416300279945396</v>
+        <v>0.04654878263652509</v>
       </c>
       <c r="P18">
-        <v>0.04416300279945396</v>
+        <v>0.046773358183619</v>
       </c>
       <c r="Q18">
-        <v>1579.349913542483</v>
+        <v>1780.12607410932</v>
       </c>
       <c r="R18">
-        <v>1579.349913542483</v>
+        <v>16021.13466698388</v>
       </c>
       <c r="S18">
-        <v>0.01044796273914111</v>
+        <v>0.01016409329122673</v>
       </c>
       <c r="T18">
-        <v>0.01044796273914111</v>
+        <v>0.01055420769728686</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="H19">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="I19">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="J19">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>226.266022777234</v>
+        <v>245.6480053333333</v>
       </c>
       <c r="N19">
-        <v>226.266022777234</v>
+        <v>736.944016</v>
       </c>
       <c r="O19">
-        <v>0.4428308536428006</v>
+        <v>0.4582203264456632</v>
       </c>
       <c r="P19">
-        <v>0.4428308536428006</v>
+        <v>0.4604310197156595</v>
       </c>
       <c r="Q19">
-        <v>15836.44286124829</v>
+        <v>17523.3358337661</v>
       </c>
       <c r="R19">
-        <v>15836.44286124829</v>
+        <v>157710.0225038949</v>
       </c>
       <c r="S19">
-        <v>0.1047637154477919</v>
+        <v>0.1000540482937486</v>
       </c>
       <c r="T19">
-        <v>0.1047637154477919</v>
+        <v>0.103894285145738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="H20">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="I20">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="J20">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>253.9271718785</v>
+        <v>255.6524913333334</v>
       </c>
       <c r="N20">
-        <v>253.9271718785</v>
+        <v>766.957474</v>
       </c>
       <c r="O20">
-        <v>0.4969671756539676</v>
+        <v>0.4768822277895005</v>
       </c>
       <c r="P20">
-        <v>0.4969671756539676</v>
+        <v>0.4791829557814964</v>
       </c>
       <c r="Q20">
-        <v>17772.45694697758</v>
+        <v>18237.00728322209</v>
       </c>
       <c r="R20">
-        <v>17772.45694697758</v>
+        <v>164133.0655489988</v>
       </c>
       <c r="S20">
-        <v>0.117571138841878</v>
+        <v>0.1041289412449038</v>
       </c>
       <c r="T20">
-        <v>0.117571138841878</v>
+        <v>0.1081255791056059</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="H21">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="I21">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="J21">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.31275502993284</v>
+        <v>7.721897999999999</v>
       </c>
       <c r="N21">
-        <v>7.31275502993284</v>
+        <v>15.443796</v>
       </c>
       <c r="O21">
-        <v>0.01431197451848113</v>
+        <v>0.01440406820132228</v>
       </c>
       <c r="P21">
-        <v>0.01431197451848113</v>
+        <v>0.00964904061390821</v>
       </c>
       <c r="Q21">
-        <v>511.8224370074958</v>
+        <v>550.842705783312</v>
       </c>
       <c r="R21">
-        <v>511.8224370074958</v>
+        <v>3305.056234699872</v>
       </c>
       <c r="S21">
-        <v>0.003385887892896556</v>
+        <v>0.003145179845295333</v>
       </c>
       <c r="T21">
-        <v>0.003385887892896556</v>
+        <v>0.002177264636825014</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="H22">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="I22">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="J22">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.882413502670955</v>
+        <v>2.114663666666666</v>
       </c>
       <c r="N22">
-        <v>0.882413502670955</v>
+        <v>6.343991</v>
       </c>
       <c r="O22">
-        <v>0.001726993385296864</v>
+        <v>0.003944594926988795</v>
       </c>
       <c r="P22">
-        <v>0.001726993385296864</v>
+        <v>0.003963625705316761</v>
       </c>
       <c r="Q22">
-        <v>27.76457973060741</v>
+        <v>66.97816736173033</v>
       </c>
       <c r="R22">
-        <v>27.76457973060741</v>
+        <v>401.869004170382</v>
       </c>
       <c r="S22">
-        <v>0.0001836725933916961</v>
+        <v>0.0003824292848924458</v>
       </c>
       <c r="T22">
-        <v>0.0001836725933916961</v>
+        <v>0.0002647383612508222</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="H23">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="I23">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="J23">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.565245657866</v>
+        <v>24.954405</v>
       </c>
       <c r="N23">
-        <v>22.565245657866</v>
+        <v>74.863215</v>
       </c>
       <c r="O23">
-        <v>0.04416300279945396</v>
+        <v>0.04654878263652509</v>
       </c>
       <c r="P23">
-        <v>0.04416300279945396</v>
+        <v>0.046773358183619</v>
       </c>
       <c r="Q23">
-        <v>710.0011052779475</v>
+        <v>790.3858854004048</v>
       </c>
       <c r="R23">
-        <v>710.0011052779475</v>
+        <v>4742.315312402429</v>
       </c>
       <c r="S23">
-        <v>0.004696910437063486</v>
+        <v>0.004512913996441581</v>
       </c>
       <c r="T23">
-        <v>0.004696910437063486</v>
+        <v>0.00312408464278527</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="H24">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="I24">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="J24">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>226.266022777234</v>
+        <v>245.6480053333333</v>
       </c>
       <c r="N24">
-        <v>226.266022777234</v>
+        <v>736.944016</v>
       </c>
       <c r="O24">
-        <v>0.4428308536428006</v>
+        <v>0.4582203264456632</v>
       </c>
       <c r="P24">
-        <v>0.4428308536428006</v>
+        <v>0.4604310197156595</v>
       </c>
       <c r="Q24">
-        <v>7119.316523047949</v>
+        <v>7780.458648171739</v>
       </c>
       <c r="R24">
-        <v>7119.316523047949</v>
+        <v>46682.75188903043</v>
       </c>
       <c r="S24">
-        <v>0.04709681693913983</v>
+        <v>0.04442455436091369</v>
       </c>
       <c r="T24">
-        <v>0.04709681693913983</v>
+        <v>0.03075309393242199</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="H25">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="I25">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="J25">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>253.9271718785</v>
+        <v>255.6524913333334</v>
       </c>
       <c r="N25">
-        <v>253.9271718785</v>
+        <v>766.957474</v>
       </c>
       <c r="O25">
-        <v>0.4969671756539676</v>
+        <v>0.4768822277895005</v>
       </c>
       <c r="P25">
-        <v>0.4969671756539676</v>
+        <v>0.4791829557814964</v>
       </c>
       <c r="Q25">
-        <v>7989.656989663292</v>
+        <v>8097.332744151425</v>
       </c>
       <c r="R25">
-        <v>7989.656989663292</v>
+        <v>48583.99646490855</v>
       </c>
       <c r="S25">
-        <v>0.05285442941474858</v>
+        <v>0.04623382951279986</v>
       </c>
       <c r="T25">
-        <v>0.05285442941474858</v>
+        <v>0.03200557264596215</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="H26">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="I26">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="J26">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.31275502993284</v>
+        <v>7.721897999999999</v>
       </c>
       <c r="N26">
-        <v>7.31275502993284</v>
+        <v>15.443796</v>
       </c>
       <c r="O26">
-        <v>0.01431197451848113</v>
+        <v>0.01440406820132228</v>
       </c>
       <c r="P26">
-        <v>0.01431197451848113</v>
+        <v>0.00964904061390821</v>
       </c>
       <c r="Q26">
-        <v>230.0911868012077</v>
+        <v>244.577227455498</v>
       </c>
       <c r="R26">
-        <v>230.0911868012077</v>
+        <v>978.3089098219918</v>
       </c>
       <c r="S26">
-        <v>0.001522135231521707</v>
+        <v>0.001396477357937176</v>
       </c>
       <c r="T26">
-        <v>0.001522135231521707</v>
+        <v>0.0006444784118596641</v>
       </c>
     </row>
   </sheetData>
